--- a/DATA/IsoData/OAESIsoData.xlsx
+++ b/DATA/IsoData/OAESIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">204428a9-4eaf-44e3-a662-3c30cdf67237</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26c22b80-338a-49f3-8dd0-7b4803a09890</t>
   </si>
   <si>
     <t xml:space="preserve">OAES.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153038Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cf381739-c03e-425c-91f9-c76b26cc774a</t>
+    <t xml:space="preserve">20210112T154702Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09cb00d2-698e-4df9-941c-c6e114fca1b7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20190130.0848</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000052873</t>
   </si>
   <si>
-    <t xml:space="preserve">ecf19a77-8f8a-42a3-9ef9-9d2c1906491c</t>
+    <t xml:space="preserve">ee588631-b841-4d23-89be-ce3336687608</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20190409.0920</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000053087</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161105Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">922a2d10-3f06-4ce9-915f-175a5eb74bec</t>
+    <t xml:space="preserve">20210112T154802Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7432d666-a07c-46dc-952a-687e3d357a9e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20190422.1557</t>
@@ -128,7 +134,7 @@
     <t xml:space="preserve">A00000053152</t>
   </si>
   <si>
-    <t xml:space="preserve">dd09c8c8-eb17-462d-930d-417e5329a501</t>
+    <t xml:space="preserve">a8069e9b-0aef-4107-b20c-6987e060200f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20190513.1610</t>
@@ -140,10 +146,10 @@
     <t xml:space="preserve">A00000104364</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160929Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c9420b54-0067-4ceb-b46e-7bc07f2dc73a</t>
+    <t xml:space="preserve">20210112T154539Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a3cddd6a-a55b-4222-803f-d1abfbd450d4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20190604.0827</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000104579</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160305Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32082acc-5b6c-40ac-9cb3-576320b2c989</t>
+    <t xml:space="preserve">20210112T153436Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73c957cf-084b-4f96-9a1b-cdb832b54693</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20190618.1231</t>
@@ -170,7 +176,7 @@
     <t xml:space="preserve">A00000104599</t>
   </si>
   <si>
-    <t xml:space="preserve">186c8765-e4d4-4136-8208-d72b572cee51</t>
+    <t xml:space="preserve">0b5b4a68-912e-4f55-a73c-81e72a8dd1d5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20190717.0754</t>
@@ -182,10 +188,10 @@
     <t xml:space="preserve">A00000104710</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160055Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1c198e9-2293-4a18-98b1-7791f087ec4b</t>
+    <t xml:space="preserve">20210112T153419Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7b6e6021-9f86-4660-bfce-a12e05232944</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20190814.1558</t>
@@ -197,10 +203,10 @@
     <t xml:space="preserve">A00000104984</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160436Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">da6f3fd1-37bf-404a-8157-e79e3a542f4a</t>
+    <t xml:space="preserve">20210112T154216Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c56069fc-2136-4ec9-ac0a-543b59f8f762</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20190826.1639</t>
@@ -212,7 +218,7 @@
     <t xml:space="preserve">A00000105018</t>
   </si>
   <si>
-    <t xml:space="preserve">d179381c-a9ef-4541-8a98-675436e6369b</t>
+    <t xml:space="preserve">2a57d805-c8f1-4ff2-86ea-6fda0984f5fd</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20190910.0855</t>
@@ -224,10 +230,10 @@
     <t xml:space="preserve">A00000105488</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153830Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">724f4305-f4c5-4c2b-8093-628b64901d70</t>
+    <t xml:space="preserve">20210112T152157Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a2d7ed92-a2f6-4d34-bcbf-c7a361de253e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20190924.0816</t>
@@ -239,7 +245,7 @@
     <t xml:space="preserve">A00000145068</t>
   </si>
   <si>
-    <t xml:space="preserve">c7885843-1ae7-483e-bc96-7b6056f7b02f</t>
+    <t xml:space="preserve">66762476-cad9-4a6d-be43-d9fa1f375c14</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20191008.0744</t>
@@ -251,10 +257,10 @@
     <t xml:space="preserve">A00000145044</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153539Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">956e92c2-e75f-4e84-87b1-64cea436c26a</t>
+    <t xml:space="preserve">20210112T152547Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8f77b45c-87e8-43d3-b104-50b9fbaa4c3c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20191022.0921</t>
@@ -266,7 +272,7 @@
     <t xml:space="preserve">A00000145040</t>
   </si>
   <si>
-    <t xml:space="preserve">e2da8a8c-169a-449f-b95a-7c399128590d</t>
+    <t xml:space="preserve">a3baf2ca-ef5c-4a68-babf-37a6fa9473f0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20191104.1540</t>
@@ -278,10 +284,10 @@
     <t xml:space="preserve">A00000145202</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T154313Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30168c0f-0148-440a-9ff5-c0fd0c5329b9</t>
+    <t xml:space="preserve">20210112T152822Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e780b6db-2e15-426f-8060-503641717d81</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20191119.0834</t>
@@ -293,7 +299,7 @@
     <t xml:space="preserve">A00000135311</t>
   </si>
   <si>
-    <t xml:space="preserve">aae1ecfd-a2e3-49b3-b9b5-ddac22285627</t>
+    <t xml:space="preserve">a319640c-611e-4cae-a239-4e26c85869d4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20191203.1557</t>
@@ -305,10 +311,10 @@
     <t xml:space="preserve">A00000135685</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153958Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fe874a92-d8d2-4730-9004-9ee60be2b5c7</t>
+    <t xml:space="preserve">20210112T153802Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c2ee3eca-3933-4f79-a101-a1af06f37eba</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OAES.20191223.1215</t>
@@ -318,6 +324,54 @@
   </si>
   <si>
     <t xml:space="preserve">A00000135538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79e47bae-8b0b-4290-a828-e1415b8ab816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.OAES.20200127.1616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.OAES.20200127.1616.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000135502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154431Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7e998ec5-42fe-43d5-85a5-f2b6d4cd4d1f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.OAES.20200224.1455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.OAES.20200224.1455.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000135722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154603Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8d803356-bc49-4def-a29b-f6d51ce8ef2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.OAES.20200309.1516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.OAES.20200309.1516.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000136646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154754Z</t>
   </si>
 </sst>
 </file>
@@ -655,7 +709,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -709,23 +763,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43453.9</v>
@@ -746,35 +803,38 @@
         <v>0.251</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43528.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43473.7548611111</v>
@@ -795,35 +855,38 @@
         <v>0.036</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43566.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43549.8791666667</v>
@@ -844,35 +907,38 @@
         <v>0.75</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43640.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43564.6041666667</v>
@@ -893,35 +959,38 @@
         <v>0.443</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43640.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43577.8840277778</v>
@@ -942,35 +1011,38 @@
         <v>0.162</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43664.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43598.8923611111</v>
@@ -991,35 +1063,38 @@
         <v>0.159</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43664.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43620.5729166667</v>
@@ -1040,35 +1115,38 @@
         <v>0.118</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43664.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43634.7430555556</v>
@@ -1089,35 +1167,38 @@
         <v>0.097</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43739.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43676.5798611111</v>
@@ -1138,35 +1219,38 @@
         <v>0.109</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43739.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43691.8798611111</v>
@@ -1187,35 +1271,38 @@
         <v>0.159</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43739.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43703.9097222222</v>
@@ -1236,35 +1323,38 @@
         <v>0.175</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43718.5805555556</v>
@@ -1285,35 +1375,38 @@
         <v>0.171</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43732.5611111111</v>
@@ -1334,35 +1427,38 @@
         <v>0.223</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43746.5625</v>
@@ -1383,35 +1479,38 @@
         <v>0.069</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43761.6354166667</v>
@@ -1432,35 +1531,38 @@
         <v>0.136</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43773.9138888889</v>
@@ -1481,35 +1583,38 @@
         <v>0.19</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43882.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43788.6166666667</v>
@@ -1530,35 +1635,38 @@
         <v>0.203</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43882.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43802.9145833333</v>
@@ -1579,17 +1687,176 @@
         <v>0.205</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43882.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>43822.7638888889</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>43857.9277777778</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-5.864</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-31.914</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>44022.75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>108</v>
+      </c>
+      <c r="R20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>43857.9326388889</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>43885.8715277778</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-9.725</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-73.274</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>44022.75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21" t="s">
+        <v>114</v>
+      </c>
+      <c r="R21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>43885.875</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>43899.8444444444</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-6.093</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-33.113</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>44022.75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22"/>
+      <c r="Q22" t="s">
+        <v>119</v>
+      </c>
+      <c r="R22" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
